--- a/raw_data/20200818_saline/20200818_Sensor1_Test_42.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_42.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6948FED6-5E9A-44C0-9EE0-A3366D977870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>37087.883659</v>
+        <v>37087.883658999999</v>
       </c>
       <c r="B2" s="1">
-        <v>10.302190</v>
+        <v>10.30219</v>
       </c>
       <c r="C2" s="1">
-        <v>905.026000</v>
+        <v>905.02599999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-180.349000</v>
+        <v>-180.34899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>37098.553102</v>
+        <v>37098.553101999998</v>
       </c>
       <c r="G2" s="1">
         <v>10.305154</v>
       </c>
       <c r="H2" s="1">
-        <v>919.615000</v>
+        <v>919.61500000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-154.469000</v>
+        <v>-154.46899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>37108.983470</v>
+        <v>37108.983469999999</v>
       </c>
       <c r="L2" s="1">
-        <v>10.308051</v>
+        <v>10.308051000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>941.556000</v>
+        <v>941.55600000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-113.580000</v>
+        <v>-113.58</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>37119.491733</v>
+        <v>37119.491733000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.310970</v>
+        <v>10.310969999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.857000</v>
+        <v>948.85699999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-99.529100</v>
+        <v>-99.5291</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>37130.047572</v>
+        <v>37130.047572000003</v>
       </c>
       <c r="V2" s="1">
-        <v>10.313902</v>
+        <v>10.313902000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>956.497000</v>
+        <v>956.49699999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.610800</v>
+        <v>-86.610799999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>37140.491368</v>
+        <v>37140.491368000003</v>
       </c>
       <c r="AA2" s="1">
         <v>10.316803</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.953000</v>
+        <v>964.95299999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.466700</v>
+        <v>-76.466700000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>37151.380537</v>
+        <v>37151.380536999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.319828</v>
+        <v>10.319827999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.338000</v>
+        <v>970.33799999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.551600</v>
+        <v>-74.551599999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>37161.818350</v>
+        <v>37161.818350000001</v>
       </c>
       <c r="AK2" s="1">
         <v>10.322727</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.082000</v>
+        <v>978.08199999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.402200</v>
+        <v>-79.402199999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>37172.164859</v>
+        <v>37172.164858999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.325601</v>
+        <v>10.325601000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.319000</v>
+        <v>986.31899999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.966500</v>
+        <v>-90.966499999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>37182.794125</v>
@@ -616,542 +1032,542 @@
         <v>10.328554</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.199000</v>
+        <v>996.19899999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.542000</v>
+        <v>-108.542</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>37193.600971</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.331556</v>
+        <v>10.331556000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.178000</v>
+        <v>-124.178</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>37204.169217</v>
+        <v>37204.169217000002</v>
       </c>
       <c r="BE2" s="1">
         <v>10.334491</v>
       </c>
       <c r="BF2" s="1">
-        <v>1042.660000</v>
+        <v>1042.6600000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.171000</v>
+        <v>-196.17099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>37215.145219</v>
+        <v>37215.145218999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.337540</v>
+        <v>10.337540000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.501000</v>
+        <v>-313.50099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>37226.247139</v>
+        <v>37226.247138999999</v>
       </c>
       <c r="BO2" s="1">
         <v>10.340624</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.100000</v>
+        <v>1216.0999999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.102000</v>
+        <v>-499.10199999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>37236.696854</v>
+        <v>37236.696854000002</v>
       </c>
       <c r="BT2" s="1">
         <v>10.343527</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.080000</v>
+        <v>1337.08</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.242000</v>
+        <v>-703.24199999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>37247.395561</v>
+        <v>37247.395560999998</v>
       </c>
       <c r="BY2" s="1">
         <v>10.346499</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.480000</v>
+        <v>1473.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-921.607000</v>
+        <v>-921.60699999999997</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>37258.414681</v>
+        <v>37258.414681000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.349560</v>
+        <v>10.34956</v>
       </c>
       <c r="CE2" s="1">
-        <v>1832.600000</v>
+        <v>1832.6</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1440.490000</v>
+        <v>-1440.49</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>37088.575111</v>
+        <v>37088.575110999998</v>
       </c>
       <c r="B3" s="1">
         <v>10.302382</v>
       </c>
       <c r="C3" s="1">
-        <v>905.091000</v>
+        <v>905.09100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-180.581000</v>
+        <v>-180.58099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>37098.898316</v>
+        <v>37098.898315999999</v>
       </c>
       <c r="G3" s="1">
-        <v>10.305250</v>
+        <v>10.305249999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>919.670000</v>
+        <v>919.67</v>
       </c>
       <c r="I3" s="1">
-        <v>-154.476000</v>
+        <v>-154.476</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>37109.361918</v>
+        <v>37109.361918000002</v>
       </c>
       <c r="L3" s="1">
         <v>10.308156</v>
       </c>
       <c r="M3" s="1">
-        <v>941.517000</v>
+        <v>941.51700000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-113.322000</v>
+        <v>-113.322</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>37119.858258</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.311072</v>
+        <v>10.311071999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.892000</v>
+        <v>948.89200000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-99.541500</v>
+        <v>-99.541499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>37130.723889</v>
+        <v>37130.723889000001</v>
       </c>
       <c r="V3" s="1">
-        <v>10.314090</v>
+        <v>10.31409</v>
       </c>
       <c r="W3" s="1">
-        <v>956.470000</v>
+        <v>956.47</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.568300</v>
+        <v>-86.568299999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>37141.175332</v>
+        <v>37141.175331999999</v>
       </c>
       <c r="AA3" s="1">
         <v>10.316993</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.922000</v>
+        <v>964.92200000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.380800</v>
+        <v>-76.380799999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>37151.790231</v>
+        <v>37151.790230999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.319942</v>
+        <v>10.319941999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.321000</v>
+        <v>970.32100000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.595800</v>
+        <v>-74.595799999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>37162.254430</v>
+        <v>37162.254430000001</v>
       </c>
       <c r="AK3" s="1">
         <v>10.322848</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.038000</v>
+        <v>978.03800000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.411400</v>
+        <v>-79.4114</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>37172.523962</v>
+        <v>37172.523961999999</v>
       </c>
       <c r="AP3" s="1">
         <v>10.325701</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.338000</v>
+        <v>986.33799999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.953900</v>
+        <v>-90.953900000000004</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>37183.207292</v>
+        <v>37183.207291999999</v>
       </c>
       <c r="AU3" s="1">
         <v>10.328669</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.203000</v>
+        <v>996.20299999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.532000</v>
+        <v>-108.532</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>37193.975440</v>
+        <v>37193.975440000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.331660</v>
+        <v>10.331659999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.169000</v>
+        <v>-124.169</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>37204.585856</v>
+        <v>37204.585855999998</v>
       </c>
       <c r="BE3" s="1">
         <v>10.334607</v>
       </c>
       <c r="BF3" s="1">
-        <v>1042.650000</v>
+        <v>1042.6500000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.187000</v>
+        <v>-196.18700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>37215.607458</v>
+        <v>37215.607457999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.337669</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.506000</v>
+        <v>-313.50599999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>37226.358771</v>
+        <v>37226.358770999999</v>
       </c>
       <c r="BO3" s="1">
         <v>10.340655</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.107000</v>
+        <v>-499.10700000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>37237.143749</v>
+        <v>37237.143749000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.343651</v>
+        <v>10.343650999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.172000</v>
+        <v>-703.17200000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>37247.883127</v>
+        <v>37247.883127000001</v>
       </c>
       <c r="BY3" s="1">
         <v>10.346634</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.440000</v>
+        <v>1473.44</v>
       </c>
       <c r="CA3" s="1">
-        <v>-921.471000</v>
+        <v>-921.471</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>37259.007896</v>
+        <v>37259.007896000003</v>
       </c>
       <c r="CD3" s="1">
         <v>10.349724</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.430000</v>
+        <v>1831.43</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1440.390000</v>
+        <v>-1440.39</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>37088.913850</v>
+        <v>37088.913849999997</v>
       </c>
       <c r="B4" s="1">
         <v>10.302476</v>
       </c>
       <c r="C4" s="1">
-        <v>904.920000</v>
+        <v>904.92</v>
       </c>
       <c r="D4" s="1">
-        <v>-180.406000</v>
+        <v>-180.40600000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>37099.240587</v>
       </c>
       <c r="G4" s="1">
-        <v>10.305345</v>
+        <v>10.305345000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>919.639000</v>
+        <v>919.63900000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-154.348000</v>
+        <v>-154.34800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>37109.707135</v>
+        <v>37109.707134999997</v>
       </c>
       <c r="L4" s="1">
         <v>10.308252</v>
       </c>
       <c r="M4" s="1">
-        <v>941.700000</v>
+        <v>941.7</v>
       </c>
       <c r="N4" s="1">
-        <v>-113.453000</v>
+        <v>-113.453</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>37120.512975</v>
+        <v>37120.512974999998</v>
       </c>
       <c r="Q4" s="1">
         <v>10.311254</v>
       </c>
       <c r="R4" s="1">
-        <v>948.831000</v>
+        <v>948.83100000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-99.588500</v>
+        <v>-99.588499999999996</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>37131.098630</v>
+        <v>37131.09863</v>
       </c>
       <c r="V4" s="1">
-        <v>10.314194</v>
+        <v>10.314194000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>956.459000</v>
+        <v>956.45899999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.601000</v>
+        <v>-86.600999999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>37141.565204</v>
+        <v>37141.565203999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.317101</v>
+        <v>10.317100999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.941000</v>
+        <v>964.94100000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.423800</v>
+        <v>-76.4238</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>37152.133461</v>
+        <v>37152.133460999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.320037</v>
+        <v>10.320036999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.348000</v>
+        <v>970.34799999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.579900</v>
+        <v>-74.579899999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>37162.602026</v>
       </c>
       <c r="AK4" s="1">
-        <v>10.322945</v>
+        <v>10.322945000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.061000</v>
+        <v>978.06100000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.407000</v>
+        <v>-79.406999999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>37172.886054</v>
+        <v>37172.886054000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.325802</v>
+        <v>10.325801999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.341000</v>
+        <v>986.34100000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.949100</v>
+        <v>-90.949100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>37183.626412</v>
+        <v>37183.626411999998</v>
       </c>
       <c r="AU4" s="1">
         <v>10.328785</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.191000</v>
+        <v>996.19100000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.525000</v>
+        <v>-108.52500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>37194.393566</v>
+        <v>37194.393565999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.331776</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.134000</v>
+        <v>-124.134</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>37204.909279</v>
@@ -1160,240 +1576,240 @@
         <v>10.334697</v>
       </c>
       <c r="BF4" s="1">
-        <v>1042.650000</v>
+        <v>1042.6500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.148000</v>
+        <v>-196.148</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>37216.006769</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.337780</v>
+        <v>10.33778</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.660000</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.503000</v>
+        <v>-313.50299999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>37226.790292</v>
+        <v>37226.790291999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.340775</v>
+        <v>10.340775000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.070000</v>
+        <v>1216.07</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.128000</v>
+        <v>-499.12799999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>37237.577252</v>
+        <v>37237.577252000003</v>
       </c>
       <c r="BT4" s="1">
         <v>10.343771</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.150000</v>
+        <v>1337.15</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.187000</v>
+        <v>-703.18700000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>37248.329031</v>
+        <v>37248.329031000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.346758</v>
+        <v>10.346757999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.520000</v>
+        <v>1473.52</v>
       </c>
       <c r="CA4" s="1">
-        <v>-921.413000</v>
+        <v>-921.41300000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>37259.549529</v>
+        <v>37259.549529000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.349875</v>
+        <v>10.349875000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1832.190000</v>
+        <v>1832.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1441.350000</v>
+        <v>-1441.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>37089.257081</v>
+        <v>37089.257081000003</v>
       </c>
       <c r="B5" s="1">
         <v>10.302571</v>
       </c>
       <c r="C5" s="1">
-        <v>905.242000</v>
+        <v>905.24199999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-180.304000</v>
+        <v>-180.304</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>37099.919115</v>
+        <v>37099.919114999997</v>
       </c>
       <c r="G5" s="1">
         <v>10.305533</v>
       </c>
       <c r="H5" s="1">
-        <v>919.621000</v>
+        <v>919.62099999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-154.488000</v>
+        <v>-154.488</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>37110.419885</v>
+        <v>37110.419885000003</v>
       </c>
       <c r="L5" s="1">
-        <v>10.308450</v>
+        <v>10.308450000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.430000</v>
+        <v>941.43</v>
       </c>
       <c r="N5" s="1">
-        <v>-113.447000</v>
+        <v>-113.447</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>37120.903328</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.311362</v>
+        <v>10.311362000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>948.820000</v>
+        <v>948.82</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.542400</v>
+        <v>-99.542400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>37131.442322</v>
+        <v>37131.442322000003</v>
       </c>
       <c r="V5" s="1">
-        <v>10.314290</v>
+        <v>10.31429</v>
       </c>
       <c r="W5" s="1">
-        <v>956.483000</v>
+        <v>956.48299999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.612300</v>
+        <v>-86.612300000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>37141.913395</v>
+        <v>37141.913395000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.317198</v>
+        <v>10.317197999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.131000</v>
+        <v>965.13099999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.436900</v>
+        <v>-76.436899999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>37152.477157</v>
+        <v>37152.477157000001</v>
       </c>
       <c r="AF5" s="1">
         <v>10.320133</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.339000</v>
+        <v>970.33900000000006</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.574400</v>
+        <v>-74.574399999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>37163.024087</v>
+        <v>37163.024086999998</v>
       </c>
       <c r="AK5" s="1">
         <v>10.323062</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.047000</v>
+        <v>978.04700000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.394700</v>
+        <v>-79.3947</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>37173.303177</v>
+        <v>37173.303177000002</v>
       </c>
       <c r="AP5" s="1">
         <v>10.325918</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.317000</v>
+        <v>986.31700000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.953500</v>
+        <v>-90.953500000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>37183.935953</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.328871</v>
+        <v>10.328870999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.179000</v>
+        <v>996.17899999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.526000</v>
+        <v>-108.526</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>37194.694142</v>
@@ -1402,345 +1818,345 @@
         <v>10.331859</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.153000</v>
+        <v>-124.15300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>37205.269880</v>
+        <v>37205.26988</v>
       </c>
       <c r="BE5" s="1">
         <v>10.334797</v>
       </c>
       <c r="BF5" s="1">
-        <v>1042.660000</v>
+        <v>1042.6600000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.177000</v>
+        <v>-196.17699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>37216.382964</v>
+        <v>37216.382963999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.337884</v>
+        <v>10.337884000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.542000</v>
+        <v>-313.54199999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>37227.188546</v>
+        <v>37227.188545999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.340886</v>
+        <v>10.340885999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.130000</v>
+        <v>-499.13</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>37238.006788</v>
+        <v>37238.006787999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.343891</v>
+        <v>10.343890999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.120000</v>
+        <v>1337.12</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.159000</v>
+        <v>-703.15899999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>37248.785845</v>
+        <v>37248.785844999999</v>
       </c>
       <c r="BY5" s="1">
         <v>10.346885</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.540000</v>
+        <v>1473.54</v>
       </c>
       <c r="CA5" s="1">
-        <v>-921.570000</v>
+        <v>-921.57</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>37260.091655</v>
+        <v>37260.091654999997</v>
       </c>
       <c r="CD5" s="1">
         <v>10.350025</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.800000</v>
+        <v>1831.8</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1439.950000</v>
+        <v>-1439.95</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>37089.924201</v>
+        <v>37089.924201000002</v>
       </c>
       <c r="B6" s="1">
         <v>10.302757</v>
       </c>
       <c r="C6" s="1">
-        <v>904.991000</v>
+        <v>904.99099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-180.323000</v>
+        <v>-180.32300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>37100.279214</v>
+        <v>37100.279214000002</v>
       </c>
       <c r="G6" s="1">
         <v>10.305633</v>
       </c>
       <c r="H6" s="1">
-        <v>919.762000</v>
+        <v>919.76199999999994</v>
       </c>
       <c r="I6" s="1">
-        <v>-154.541000</v>
+        <v>-154.541</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>37110.754715</v>
+        <v>37110.754715000003</v>
       </c>
       <c r="L6" s="1">
         <v>10.308543</v>
       </c>
       <c r="M6" s="1">
-        <v>941.499000</v>
+        <v>941.49900000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-113.273000</v>
+        <v>-113.273</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>37121.251548</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.311459</v>
+        <v>10.311458999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>948.838000</v>
+        <v>948.83799999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.534800</v>
+        <v>-99.534800000000004</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>37131.786099</v>
+        <v>37131.786098999997</v>
       </c>
       <c r="V6" s="1">
         <v>10.314385</v>
       </c>
       <c r="W6" s="1">
-        <v>956.461000</v>
+        <v>956.46100000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.608300</v>
+        <v>-86.6083</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>37142.263573</v>
+        <v>37142.263572999997</v>
       </c>
       <c r="AA6" s="1">
         <v>10.317295</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.963000</v>
+        <v>964.96299999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.362500</v>
+        <v>-76.362499999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>37152.894789</v>
+        <v>37152.894788999998</v>
       </c>
       <c r="AF6" s="1">
         <v>10.320249</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.341000</v>
+        <v>970.34100000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.555700</v>
+        <v>-74.555700000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>37163.298375</v>
+        <v>37163.298374999998</v>
       </c>
       <c r="AK6" s="1">
         <v>10.323138</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.048000</v>
+        <v>978.048</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.415100</v>
+        <v>-79.415099999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>37173.606233</v>
+        <v>37173.606232999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.326002</v>
+        <v>10.326002000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.342000</v>
+        <v>986.34199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.939700</v>
+        <v>-90.939700000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>37184.299515</v>
+        <v>37184.299514999999</v>
       </c>
       <c r="AU6" s="1">
         <v>10.328972</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.204000</v>
+        <v>996.20399999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.521000</v>
+        <v>-108.521</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>37195.055725</v>
+        <v>37195.055724999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.331960</v>
+        <v>10.33196</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.169000</v>
+        <v>-124.169</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>37205.630432</v>
+        <v>37205.630431999998</v>
       </c>
       <c r="BE6" s="1">
         <v>10.334897</v>
       </c>
       <c r="BF6" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.177000</v>
+        <v>-196.17699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>37217.131696</v>
+        <v>37217.131695999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>10.338092</v>
       </c>
       <c r="BK6" s="1">
-        <v>1108.640000</v>
+        <v>1108.6400000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.501000</v>
+        <v>-313.50099999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>37227.607209</v>
+        <v>37227.607209000002</v>
       </c>
       <c r="BO6" s="1">
         <v>10.341002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.149000</v>
+        <v>-499.149</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>37238.418009</v>
+        <v>37238.418009000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.344005</v>
+        <v>10.344004999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.140000</v>
+        <v>1337.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.164000</v>
+        <v>-703.16399999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>37249.234725</v>
+        <v>37249.234725000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.347010</v>
+        <v>10.347009999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.560000</v>
+        <v>1473.56</v>
       </c>
       <c r="CA6" s="1">
-        <v>-921.536000</v>
+        <v>-921.53599999999994</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>37260.629083</v>
@@ -1749,225 +2165,225 @@
         <v>10.350175</v>
       </c>
       <c r="CE6" s="1">
-        <v>1831.380000</v>
+        <v>1831.38</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1441.610000</v>
+        <v>-1441.61</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>37090.285287</v>
+        <v>37090.285286999999</v>
       </c>
       <c r="B7" s="1">
-        <v>10.302857</v>
+        <v>10.302856999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>905.198000</v>
+        <v>905.19799999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-180.534000</v>
+        <v>-180.53399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>37100.622907</v>
+        <v>37100.622906999997</v>
       </c>
       <c r="G7" s="1">
-        <v>10.305729</v>
+        <v>10.305728999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>919.522000</v>
+        <v>919.52200000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-154.528000</v>
+        <v>-154.52799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>37111.098907</v>
       </c>
       <c r="L7" s="1">
-        <v>10.308639</v>
+        <v>10.308638999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>941.610000</v>
+        <v>941.61</v>
       </c>
       <c r="N7" s="1">
-        <v>-113.273000</v>
+        <v>-113.273</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>37121.599710</v>
+        <v>37121.599710000002</v>
       </c>
       <c r="Q7" s="1">
         <v>10.311555</v>
       </c>
       <c r="R7" s="1">
-        <v>948.842000</v>
+        <v>948.84199999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.553500</v>
+        <v>-99.5535</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>37132.204207</v>
+        <v>37132.204207000002</v>
       </c>
       <c r="V7" s="1">
         <v>10.314501</v>
       </c>
       <c r="W7" s="1">
-        <v>956.452000</v>
+        <v>956.452</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.625400</v>
+        <v>-86.625399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>37142.673763</v>
+        <v>37142.673762999999</v>
       </c>
       <c r="AA7" s="1">
         <v>10.317409</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.025000</v>
+        <v>965.02499999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.535500</v>
+        <v>-76.535499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>37153.175524</v>
+        <v>37153.175523999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.320327</v>
+        <v>10.320327000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.312000</v>
+        <v>970.31200000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.583200</v>
+        <v>-74.583200000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>37163.648054</v>
+        <v>37163.648053999998</v>
       </c>
       <c r="AK7" s="1">
         <v>10.323236</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.072000</v>
+        <v>978.072</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.421800</v>
+        <v>-79.421800000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>37173.967320</v>
+        <v>37173.967320000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.326102</v>
+        <v>10.326102000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.323000</v>
+        <v>986.32299999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.939200</v>
+        <v>-90.9392</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>37184.664072</v>
       </c>
       <c r="AU7" s="1">
-        <v>10.329073</v>
+        <v>10.329072999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.197000</v>
+        <v>996.197</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.525000</v>
+        <v>-108.52500000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>37195.412881</v>
+        <v>37195.412880999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.332059</v>
+        <v>10.332058999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.169000</v>
+        <v>-124.169</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>37206.353633</v>
+        <v>37206.353632999999</v>
       </c>
       <c r="BE7" s="1">
         <v>10.335098</v>
       </c>
       <c r="BF7" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.158000</v>
+        <v>-196.15799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>37217.508128</v>
+        <v>37217.508128000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.338197</v>
+        <v>10.338196999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.503000</v>
+        <v>-313.50299999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>37228.003475</v>
+        <v>37228.003474999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.341112</v>
+        <v>10.341112000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.137000</v>
+        <v>-499.137</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>37238.848501</v>
@@ -1976,46 +2392,46 @@
         <v>10.344125</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.170000</v>
+        <v>1337.17</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.100000</v>
+        <v>-703.1</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>37249.990629</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.347220</v>
+        <v>10.34722</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.510000</v>
+        <v>1473.51</v>
       </c>
       <c r="CA7" s="1">
-        <v>-921.467000</v>
+        <v>-921.46699999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>37261.481942</v>
+        <v>37261.481941999999</v>
       </c>
       <c r="CD7" s="1">
         <v>10.350412</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.250000</v>
+        <v>1831.25</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1439.930000</v>
+        <v>-1439.93</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>37090.623559</v>
       </c>
@@ -2023,13 +2439,13 @@
         <v>10.302951</v>
       </c>
       <c r="C8" s="1">
-        <v>905.156000</v>
+        <v>905.15599999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-180.321000</v>
+        <v>-180.321</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>37100.969114</v>
@@ -2038,28 +2454,28 @@
         <v>10.305825</v>
       </c>
       <c r="H8" s="1">
-        <v>919.490000</v>
+        <v>919.49</v>
       </c>
       <c r="I8" s="1">
-        <v>-154.088000</v>
+        <v>-154.08799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>37111.517071</v>
+        <v>37111.517071000002</v>
       </c>
       <c r="L8" s="1">
         <v>10.308755</v>
       </c>
       <c r="M8" s="1">
-        <v>941.438000</v>
+        <v>941.43799999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-113.255000</v>
+        <v>-113.255</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>37122.024781</v>
@@ -2068,330 +2484,330 @@
         <v>10.311674</v>
       </c>
       <c r="R8" s="1">
-        <v>948.836000</v>
+        <v>948.83600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-99.565500</v>
+        <v>-99.5655</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>37132.497311</v>
+        <v>37132.497310999999</v>
       </c>
       <c r="V8" s="1">
-        <v>10.314583</v>
+        <v>10.314583000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>956.400000</v>
+        <v>956.4</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.656600</v>
+        <v>-86.656599999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>37142.973313</v>
+        <v>37142.973313000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.317493</v>
+        <v>10.317493000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.903000</v>
+        <v>964.90300000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.370800</v>
+        <v>-76.370800000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>37153.518787</v>
+        <v>37153.518787000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.320422</v>
+        <v>10.320422000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.364000</v>
+        <v>970.36400000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.574800</v>
+        <v>-74.574799999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>37163.987650</v>
+        <v>37163.987650000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.323330</v>
+        <v>10.32333</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.060000</v>
+        <v>978.06</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.394500</v>
+        <v>-79.394499999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>37174.325964</v>
+        <v>37174.325964000003</v>
       </c>
       <c r="AP8" s="1">
         <v>10.326202</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.327000</v>
+        <v>986.327</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.950700</v>
+        <v>-90.950699999999998</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>37185.398157</v>
+        <v>37185.398157000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.329277</v>
+        <v>10.329276999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.190000</v>
+        <v>996.19</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.545000</v>
+        <v>-108.545</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>37196.138493</v>
+        <v>37196.138492999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.332261</v>
+        <v>10.332261000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.165000</v>
+        <v>-124.16500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>37206.740477</v>
+        <v>37206.740476999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.335206</v>
+        <v>10.335205999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1042.710000</v>
+        <v>1042.71</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.178000</v>
+        <v>-196.178</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>37217.882755</v>
+        <v>37217.882754999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.338301</v>
       </c>
       <c r="BK8" s="1">
-        <v>1108.690000</v>
+        <v>1108.69</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.529000</v>
+        <v>-313.529</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>37228.423119</v>
+        <v>37228.423118999999</v>
       </c>
       <c r="BO8" s="1">
         <v>10.341229</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.104000</v>
+        <v>-499.10399999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>37239.585060</v>
+        <v>37239.585059999998</v>
       </c>
       <c r="BT8" s="1">
         <v>10.344329</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.270000</v>
+        <v>1337.27</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.104000</v>
+        <v>-703.10400000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>37250.138463</v>
+        <v>37250.138463000003</v>
       </c>
       <c r="BY8" s="1">
         <v>10.347261</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.470000</v>
+        <v>1473.47</v>
       </c>
       <c r="CA8" s="1">
-        <v>-921.552000</v>
+        <v>-921.55200000000002</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>37261.708117</v>
+        <v>37261.708117000002</v>
       </c>
       <c r="CD8" s="1">
         <v>10.350474</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.610000</v>
+        <v>1831.61</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1439.790000</v>
+        <v>-1439.79</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>37090.965302</v>
+        <v>37090.965301999997</v>
       </c>
       <c r="B9" s="1">
         <v>10.303046</v>
       </c>
       <c r="C9" s="1">
-        <v>905.072000</v>
+        <v>905.072</v>
       </c>
       <c r="D9" s="1">
-        <v>-180.437000</v>
+        <v>-180.43700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>37101.384264</v>
       </c>
       <c r="G9" s="1">
-        <v>10.305940</v>
+        <v>10.30594</v>
       </c>
       <c r="H9" s="1">
-        <v>919.650000</v>
+        <v>919.65</v>
       </c>
       <c r="I9" s="1">
-        <v>-154.159000</v>
+        <v>-154.15899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>37111.794796</v>
+        <v>37111.794796000002</v>
       </c>
       <c r="L9" s="1">
-        <v>10.308832</v>
+        <v>10.308832000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.543000</v>
+        <v>941.54300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-113.113000</v>
+        <v>-113.113</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>37122.299070</v>
+        <v>37122.299070000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.311750</v>
+        <v>10.31175</v>
       </c>
       <c r="R9" s="1">
-        <v>948.878000</v>
+        <v>948.87800000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.560300</v>
+        <v>-99.560299999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>37132.841041</v>
       </c>
       <c r="V9" s="1">
-        <v>10.314678</v>
+        <v>10.314678000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>956.599000</v>
+        <v>956.59900000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.634200</v>
+        <v>-86.634200000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>37143.320017</v>
+        <v>37143.320016999998</v>
       </c>
       <c r="AA9" s="1">
         <v>10.317589</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.020000</v>
+        <v>965.02</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.467700</v>
+        <v>-76.467699999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>37153.862980</v>
+        <v>37153.862979999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.320517</v>
+        <v>10.320517000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.336000</v>
+        <v>970.33600000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.573800</v>
+        <v>-74.573800000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>37164.693653</v>
+        <v>37164.693653000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>10.323526</v>
+        <v>10.323525999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.058000</v>
+        <v>978.05799999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.395800</v>
+        <v>-79.395799999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>37175.047607</v>
@@ -2400,225 +2816,225 @@
         <v>10.326402</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.356000</v>
+        <v>986.35599999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.960300</v>
+        <v>-90.960300000000004</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>37185.778058</v>
+        <v>37185.778058000004</v>
       </c>
       <c r="AU9" s="1">
         <v>10.329383</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.213000</v>
+        <v>996.21299999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.542000</v>
+        <v>-108.542</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>37196.527851</v>
+        <v>37196.527850999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>10.332369</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.172000</v>
+        <v>-124.172</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>37207.123885</v>
+        <v>37207.123885000001</v>
       </c>
       <c r="BE9" s="1">
         <v>10.335312</v>
       </c>
       <c r="BF9" s="1">
-        <v>1042.660000</v>
+        <v>1042.6600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.176000</v>
+        <v>-196.17599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>37218.568078</v>
+        <v>37218.568077999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.338491</v>
+        <v>10.338490999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.527000</v>
+        <v>-313.52699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>37229.126939</v>
+        <v>37229.126939000002</v>
       </c>
       <c r="BO9" s="1">
         <v>10.341424</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.146000</v>
+        <v>-499.14600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>37239.720003</v>
+        <v>37239.720003000002</v>
       </c>
       <c r="BT9" s="1">
         <v>10.344367</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.280000</v>
+        <v>1337.28</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.126000</v>
+        <v>-703.12599999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>37250.561059</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.347378</v>
+        <v>10.347378000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.430000</v>
+        <v>1473.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-921.568000</v>
+        <v>-921.56799999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>37262.227924</v>
+        <v>37262.227923999999</v>
       </c>
       <c r="CD9" s="1">
         <v>10.350619</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.220000</v>
+        <v>1831.22</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1441.120000</v>
+        <v>-1441.12</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>37091.394109</v>
+        <v>37091.394109000001</v>
       </c>
       <c r="B10" s="1">
         <v>10.303165</v>
       </c>
       <c r="C10" s="1">
-        <v>905.026000</v>
+        <v>905.02599999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-180.461000</v>
+        <v>-180.46100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>37101.677432</v>
+        <v>37101.677431999997</v>
       </c>
       <c r="G10" s="1">
         <v>10.306022</v>
       </c>
       <c r="H10" s="1">
-        <v>919.775000</v>
+        <v>919.77499999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-154.427000</v>
+        <v>-154.42699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>37112.139050</v>
+        <v>37112.139049999998</v>
       </c>
       <c r="L10" s="1">
         <v>10.308928</v>
       </c>
       <c r="M10" s="1">
-        <v>941.425000</v>
+        <v>941.42499999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-113.226000</v>
+        <v>-113.226</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>37122.648784</v>
+        <v>37122.648783999997</v>
       </c>
       <c r="Q10" s="1">
         <v>10.311847</v>
       </c>
       <c r="R10" s="1">
-        <v>948.854000</v>
+        <v>948.85400000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.637800</v>
+        <v>-99.637799999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>37133.182782</v>
+        <v>37133.182782000003</v>
       </c>
       <c r="V10" s="1">
-        <v>10.314773</v>
+        <v>10.314773000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>956.506000</v>
+        <v>956.50599999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.603800</v>
+        <v>-86.603800000000007</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>37143.672177</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.317687</v>
+        <v>10.317686999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.941000</v>
+        <v>964.94100000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.490500</v>
+        <v>-76.490499999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>37154.549971</v>
@@ -2627,88 +3043,88 @@
         <v>10.320708</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.320000</v>
+        <v>970.32</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.570200</v>
+        <v>-74.5702</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>37165.040822</v>
+        <v>37165.040822000003</v>
       </c>
       <c r="AK10" s="1">
         <v>10.323622</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.083000</v>
+        <v>978.08299999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.400900</v>
+        <v>-79.400899999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>37175.436622</v>
+        <v>37175.436622000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.326510</v>
+        <v>10.326510000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.344000</v>
+        <v>986.34400000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.953500</v>
+        <v>-90.953500000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>37186.143641</v>
+        <v>37186.143641000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.329484</v>
+        <v>10.329484000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.202000</v>
+        <v>996.202</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.534000</v>
+        <v>-108.53400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>37197.196987</v>
+        <v>37197.196987000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.332555</v>
+        <v>10.332554999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.164000</v>
+        <v>-124.164</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>37207.793484</v>
+        <v>37207.793484000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.335498</v>
+        <v>10.335497999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1042.680000</v>
+        <v>1042.68</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.186000</v>
+        <v>-196.18600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>37219.007565</v>
@@ -2717,90 +3133,90 @@
         <v>10.338613</v>
       </c>
       <c r="BK10" s="1">
-        <v>1108.660000</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.486000</v>
+        <v>-313.48599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>37229.258847</v>
+        <v>37229.258846999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.341461</v>
+        <v>10.341461000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.139000</v>
+        <v>-499.13900000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>37240.132670</v>
+        <v>37240.132669999999</v>
       </c>
       <c r="BT10" s="1">
         <v>10.344481</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.260000</v>
+        <v>1337.26</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.081000</v>
+        <v>-703.08100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>37250.979836</v>
+        <v>37250.979835999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.347494</v>
+        <v>10.347493999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.490000</v>
+        <v>1473.49</v>
       </c>
       <c r="CA10" s="1">
-        <v>-921.573000</v>
+        <v>-921.57299999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>37262.746243</v>
+        <v>37262.746243000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.350763</v>
+        <v>10.350763000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.230000</v>
+        <v>1831.23</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1440.840000</v>
+        <v>-1440.84</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>37091.663670</v>
+        <v>37091.663670000002</v>
       </c>
       <c r="B11" s="1">
-        <v>10.303240</v>
+        <v>10.303240000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>905.182000</v>
+        <v>905.18200000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-180.460000</v>
+        <v>-180.46</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>37102.020137</v>
@@ -2809,814 +3225,814 @@
         <v>10.306117</v>
       </c>
       <c r="H11" s="1">
-        <v>919.783000</v>
+        <v>919.78300000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-154.462000</v>
+        <v>-154.46199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>37112.487706</v>
       </c>
       <c r="L11" s="1">
-        <v>10.309024</v>
+        <v>10.309024000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.496000</v>
+        <v>941.49599999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-113.257000</v>
+        <v>-113.25700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>37122.996972</v>
+        <v>37122.996972000001</v>
       </c>
       <c r="Q11" s="1">
         <v>10.311944</v>
       </c>
       <c r="R11" s="1">
-        <v>948.817000</v>
+        <v>948.81700000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.560500</v>
+        <v>-99.560500000000005</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>37133.868783</v>
+        <v>37133.868782999998</v>
       </c>
       <c r="V11" s="1">
         <v>10.314964</v>
       </c>
       <c r="W11" s="1">
-        <v>956.488000</v>
+        <v>956.48800000000006</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.606200</v>
+        <v>-86.606200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>37144.366117</v>
+        <v>37144.366116999998</v>
       </c>
       <c r="AA11" s="1">
         <v>10.317879</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.955000</v>
+        <v>964.95500000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.390700</v>
+        <v>-76.390699999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>37154.893666</v>
+        <v>37154.893666000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>10.320804</v>
+        <v>10.320804000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.340000</v>
+        <v>970.34</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.540300</v>
+        <v>-74.540300000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>37165.390040</v>
+        <v>37165.390039999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.323719</v>
+        <v>10.323719000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.065000</v>
+        <v>978.06500000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.422200</v>
+        <v>-79.422200000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>37175.797062</v>
+        <v>37175.797061999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.326610</v>
+        <v>10.326610000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.351000</v>
+        <v>986.351</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.954500</v>
+        <v>-90.954499999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>37186.811255</v>
+        <v>37186.811255000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.329670</v>
+        <v>10.32967</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.194000</v>
+        <v>996.19399999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.531000</v>
+        <v>-108.53100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>37197.609657</v>
+        <v>37197.609657000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.332669</v>
+        <v>10.332668999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.143000</v>
+        <v>-124.143</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>37208.206190</v>
+        <v>37208.206189999997</v>
       </c>
       <c r="BE11" s="1">
         <v>10.335613</v>
       </c>
       <c r="BF11" s="1">
-        <v>1042.660000</v>
+        <v>1042.6600000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.154000</v>
+        <v>-196.154</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>37219.386972</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.338719</v>
+        <v>10.338718999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.509000</v>
+        <v>-313.50900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>37229.666063</v>
+        <v>37229.666062999997</v>
       </c>
       <c r="BO11" s="1">
         <v>10.341574</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.164000</v>
+        <v>-499.16399999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>37240.561713</v>
+        <v>37240.561713000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.344600</v>
+        <v>10.3446</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.163000</v>
+        <v>-703.16300000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>37251.416166</v>
+        <v>37251.416166000003</v>
       </c>
       <c r="BY11" s="1">
         <v>10.347616</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.510000</v>
+        <v>1473.51</v>
       </c>
       <c r="CA11" s="1">
-        <v>-921.511000</v>
+        <v>-921.51099999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>37263.296340</v>
+        <v>37263.296340000001</v>
       </c>
       <c r="CD11" s="1">
         <v>10.350916</v>
       </c>
       <c r="CE11" s="1">
-        <v>1831.070000</v>
+        <v>1831.07</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1440.430000</v>
+        <v>-1440.43</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>37092.001941</v>
+        <v>37092.001941000002</v>
       </c>
       <c r="B12" s="1">
         <v>10.303334</v>
       </c>
       <c r="C12" s="1">
-        <v>905.147000</v>
+        <v>905.14700000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-180.187000</v>
+        <v>-180.18700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>37102.366839</v>
+        <v>37102.366839000002</v>
       </c>
       <c r="G12" s="1">
         <v>10.306213</v>
       </c>
       <c r="H12" s="1">
-        <v>920.011000</v>
+        <v>920.01099999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-153.793000</v>
+        <v>-153.79300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>37113.179625</v>
+        <v>37113.179624999997</v>
       </c>
       <c r="L12" s="1">
         <v>10.309217</v>
       </c>
       <c r="M12" s="1">
-        <v>941.618000</v>
+        <v>941.61800000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-113.566000</v>
+        <v>-113.566</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>37123.694316</v>
+        <v>37123.694316000001</v>
       </c>
       <c r="Q12" s="1">
         <v>10.312137</v>
       </c>
       <c r="R12" s="1">
-        <v>948.829000</v>
+        <v>948.82899999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.599300</v>
+        <v>-99.599299999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>37134.215453</v>
+        <v>37134.215452999997</v>
       </c>
       <c r="V12" s="1">
-        <v>10.315060</v>
+        <v>10.315060000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>956.519000</v>
+        <v>956.51900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.621900</v>
+        <v>-86.621899999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>37144.716788</v>
+        <v>37144.716787999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.317977</v>
+        <v>10.317977000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.929000</v>
+        <v>964.92899999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.442800</v>
+        <v>-76.442800000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>37155.235941</v>
+        <v>37155.235940999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.320899</v>
+        <v>10.320899000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.315000</v>
+        <v>970.31500000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.581600</v>
+        <v>-74.581599999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>37166.053651</v>
+        <v>37166.053651000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.323904</v>
+        <v>10.323904000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.073000</v>
+        <v>978.07299999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.395200</v>
+        <v>-79.395200000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>37176.465671</v>
+        <v>37176.465670999998</v>
       </c>
       <c r="AP12" s="1">
         <v>10.326796</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.351000</v>
+        <v>986.351</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.963100</v>
+        <v>-90.963099999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>37187.271511</v>
+        <v>37187.271510999999</v>
       </c>
       <c r="AU12" s="1">
         <v>10.329798</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.201000</v>
+        <v>996.20100000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.537000</v>
+        <v>-108.53700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>37197.967242</v>
+        <v>37197.967241999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.332769</v>
+        <v>10.332769000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.168000</v>
+        <v>-124.16800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>37208.596509</v>
+        <v>37208.596509000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.335721</v>
+        <v>10.335720999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1042.660000</v>
+        <v>1042.6600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.159000</v>
+        <v>-196.15899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>37219.761950</v>
+        <v>37219.76195</v>
       </c>
       <c r="BJ12" s="1">
         <v>10.338823</v>
       </c>
       <c r="BK12" s="1">
-        <v>1108.660000</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.497000</v>
+        <v>-313.49700000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>37230.069807</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.341686</v>
+        <v>10.341685999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.094000</v>
+        <v>-499.09399999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>37240.977360</v>
+        <v>37240.977359999997</v>
       </c>
       <c r="BT12" s="1">
         <v>10.344716</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.330000</v>
+        <v>1337.33</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.061000</v>
+        <v>-703.06100000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>37251.851121</v>
       </c>
       <c r="BY12" s="1">
-        <v>10.347736</v>
+        <v>10.347735999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.450000</v>
+        <v>1473.45</v>
       </c>
       <c r="CA12" s="1">
-        <v>-921.522000</v>
+        <v>-921.52200000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>37263.826561</v>
+        <v>37263.826561000002</v>
       </c>
       <c r="CD12" s="1">
         <v>10.351063</v>
       </c>
       <c r="CE12" s="1">
-        <v>1831.460000</v>
+        <v>1831.46</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1441.710000</v>
+        <v>-1441.71</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>37092.342694</v>
+        <v>37092.342693999999</v>
       </c>
       <c r="B13" s="1">
         <v>10.303429</v>
       </c>
       <c r="C13" s="1">
-        <v>905.062000</v>
+        <v>905.06200000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-180.386000</v>
+        <v>-180.386</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>37103.053841</v>
+        <v>37103.053841000001</v>
       </c>
       <c r="G13" s="1">
-        <v>10.306404</v>
+        <v>10.306404000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>919.749000</v>
+        <v>919.74900000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-154.071000</v>
+        <v>-154.071</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>37113.528313</v>
+        <v>37113.528313000003</v>
       </c>
       <c r="L13" s="1">
         <v>10.309313</v>
       </c>
       <c r="M13" s="1">
-        <v>941.518000</v>
+        <v>941.51800000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-113.272000</v>
+        <v>-113.27200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>37124.040029</v>
+        <v>37124.040029000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.312233</v>
+        <v>10.312233000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.887000</v>
+        <v>948.88699999999994</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.585800</v>
+        <v>-99.585800000000006</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>37134.556205</v>
+        <v>37134.556205000001</v>
       </c>
       <c r="V13" s="1">
-        <v>10.315155</v>
+        <v>10.315155000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>956.488000</v>
+        <v>956.48800000000006</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.627900</v>
+        <v>-86.627899999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>37145.412638</v>
+        <v>37145.412638000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>10.318170</v>
+        <v>10.31817</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.925000</v>
+        <v>964.92499999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.392400</v>
+        <v>-76.392399999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>37155.888283</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.321080</v>
+        <v>10.32108</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.317000</v>
+        <v>970.31700000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.593900</v>
+        <v>-74.593900000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>37166.439044</v>
+        <v>37166.439043999999</v>
       </c>
       <c r="AK13" s="1">
         <v>10.324011</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.085000</v>
+        <v>978.08500000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.424100</v>
+        <v>-79.424099999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>37176.906116</v>
+        <v>37176.906115999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>10.326918</v>
+        <v>10.326917999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.345000</v>
+        <v>986.34500000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.949000</v>
+        <v>-90.948999999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>37187.632103</v>
+        <v>37187.632103000004</v>
       </c>
       <c r="AU13" s="1">
         <v>10.329898</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.204000</v>
+        <v>996.20399999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.526000</v>
+        <v>-108.526</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>37198.325352</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.332868</v>
+        <v>10.332867999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.176000</v>
+        <v>-124.176</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>37208.955612</v>
+        <v>37208.955611999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.335821</v>
+        <v>10.335820999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.171000</v>
+        <v>-196.17099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>37220.188539</v>
+        <v>37220.188539000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.338941</v>
       </c>
       <c r="BK13" s="1">
-        <v>1108.670000</v>
+        <v>1108.67</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.498000</v>
+        <v>-313.49799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>37230.491902</v>
+        <v>37230.491902000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.341803</v>
+        <v>10.341803000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.090000</v>
+        <v>-499.09</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>37241.390495</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.344831</v>
+        <v>10.344830999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.380000</v>
+        <v>1337.38</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.084000</v>
+        <v>-703.08399999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>37252.268790</v>
+        <v>37252.268790000002</v>
       </c>
       <c r="BY13" s="1">
         <v>10.347852</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.510000</v>
+        <v>1473.51</v>
       </c>
       <c r="CA13" s="1">
-        <v>-921.545000</v>
+        <v>-921.54499999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>37264.343890</v>
+        <v>37264.343889999996</v>
       </c>
       <c r="CD13" s="1">
         <v>10.351207</v>
       </c>
       <c r="CE13" s="1">
-        <v>1832.720000</v>
+        <v>1832.72</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1440.440000</v>
+        <v>-1440.44</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>37093.028183</v>
+        <v>37093.028183000002</v>
       </c>
       <c r="B14" s="1">
-        <v>10.303619</v>
+        <v>10.303618999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>905.024000</v>
+        <v>905.024</v>
       </c>
       <c r="D14" s="1">
-        <v>-180.422000</v>
+        <v>-180.422</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>37103.398022</v>
+        <v>37103.398022000001</v>
       </c>
       <c r="G14" s="1">
-        <v>10.306499</v>
+        <v>10.306499000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>919.896000</v>
+        <v>919.89599999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-153.961000</v>
+        <v>-153.96100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>37113.871544</v>
+        <v>37113.871544000001</v>
       </c>
       <c r="L14" s="1">
         <v>10.309409</v>
       </c>
       <c r="M14" s="1">
-        <v>941.528000</v>
+        <v>941.52800000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-113.134000</v>
+        <v>-113.134</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>37124.391690</v>
+        <v>37124.391689999997</v>
       </c>
       <c r="Q14" s="1">
         <v>10.312331</v>
       </c>
       <c r="R14" s="1">
-        <v>948.902000</v>
+        <v>948.90200000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.618400</v>
+        <v>-99.618399999999994</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>37135.208972</v>
@@ -3625,255 +4041,255 @@
         <v>10.315336</v>
       </c>
       <c r="W14" s="1">
-        <v>956.548000</v>
+        <v>956.548</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.595400</v>
+        <v>-86.595399999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>37145.772736</v>
+        <v>37145.772735999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.318270</v>
+        <v>10.31827</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.999000</v>
+        <v>964.99900000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.321800</v>
+        <v>-76.321799999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>37156.267615</v>
+        <v>37156.267614999997</v>
       </c>
       <c r="AF14" s="1">
         <v>10.321185</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.272000</v>
+        <v>970.27200000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.565900</v>
+        <v>-74.565899999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>37166.786242</v>
+        <v>37166.786242000002</v>
       </c>
       <c r="AK14" s="1">
         <v>10.324107</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.069000</v>
+        <v>978.06899999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.390200</v>
+        <v>-79.390199999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>37177.264266</v>
+        <v>37177.264265999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>10.327018</v>
+        <v>10.327018000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.343000</v>
+        <v>986.34299999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.939900</v>
+        <v>-90.939899999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>37188.001127</v>
+        <v>37188.001127000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.330000</v>
+        <v>10.33</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.197000</v>
+        <v>996.197</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.544000</v>
+        <v>-108.544</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>37198.741000</v>
+        <v>37198.741000000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.332984</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.420000</v>
+        <v>1004.42</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.155000</v>
+        <v>-124.155</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>37209.375723</v>
+        <v>37209.375722999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.335938</v>
+        <v>10.335938000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.165000</v>
+        <v>-196.16499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>37220.538187</v>
+        <v>37220.538186999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.339038</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.690000</v>
+        <v>1108.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.512000</v>
+        <v>-313.512</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>37230.882750</v>
+        <v>37230.882749999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.341912</v>
+        <v>10.341912000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.116000</v>
+        <v>-499.11599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>37241.804159</v>
+        <v>37241.804158999999</v>
       </c>
       <c r="BT14" s="1">
         <v>10.344946</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.360000</v>
+        <v>1337.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.102000</v>
+        <v>-703.10199999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>37252.691842</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.347970</v>
+        <v>10.34797</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.530000</v>
+        <v>1473.53</v>
       </c>
       <c r="CA14" s="1">
-        <v>-921.434000</v>
+        <v>-921.43399999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>37264.889456</v>
+        <v>37264.889455999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.351358</v>
+        <v>10.351357999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.870000</v>
+        <v>1830.87</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1440.650000</v>
+        <v>-1440.65</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>37093.367428</v>
+        <v>37093.367427999998</v>
       </c>
       <c r="B15" s="1">
         <v>10.303713</v>
       </c>
       <c r="C15" s="1">
-        <v>905.043000</v>
+        <v>905.04300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-180.428000</v>
+        <v>-180.428</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>37103.743002</v>
+        <v>37103.743002000003</v>
       </c>
       <c r="G15" s="1">
         <v>10.306595</v>
       </c>
       <c r="H15" s="1">
-        <v>919.737000</v>
+        <v>919.73699999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-154.506000</v>
+        <v>-154.506</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>37114.522295</v>
+        <v>37114.522295000002</v>
       </c>
       <c r="L15" s="1">
-        <v>10.309590</v>
+        <v>10.30959</v>
       </c>
       <c r="M15" s="1">
-        <v>941.653000</v>
+        <v>941.65300000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-113.199000</v>
+        <v>-113.199</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>37125.043930</v>
+        <v>37125.04393</v>
       </c>
       <c r="Q15" s="1">
         <v>10.312512</v>
       </c>
       <c r="R15" s="1">
-        <v>948.865000</v>
+        <v>948.86500000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.645600</v>
+        <v>-99.645600000000002</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>37135.587387</v>
@@ -3882,435 +4298,435 @@
         <v>10.315441</v>
       </c>
       <c r="W15" s="1">
-        <v>956.422000</v>
+        <v>956.42200000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.557500</v>
+        <v>-86.557500000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>37146.117489</v>
+        <v>37146.117488999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.318366</v>
+        <v>10.318365999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.996000</v>
+        <v>964.99599999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.500200</v>
+        <v>-76.500200000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>37156.610852</v>
+        <v>37156.610851999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.321281</v>
+        <v>10.321281000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.315000</v>
+        <v>970.31500000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.537800</v>
+        <v>-74.537800000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>37167.132977</v>
+        <v>37167.132977000001</v>
       </c>
       <c r="AK15" s="1">
         <v>10.324204</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.088000</v>
+        <v>978.08799999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.411200</v>
+        <v>-79.411199999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>37177.626309</v>
+        <v>37177.626308999999</v>
       </c>
       <c r="AP15" s="1">
         <v>10.327118</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.340000</v>
+        <v>986.34</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.952200</v>
+        <v>-90.952200000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>37188.412342</v>
+        <v>37188.412342000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.330115</v>
+        <v>10.330114999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.199000</v>
+        <v>996.19899999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.552000</v>
+        <v>-108.55200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>37199.043560</v>
+        <v>37199.043559999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.333068</v>
+        <v>10.333068000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>37209.677321</v>
+        <v>37209.677321000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.336021</v>
+        <v>10.336021000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.174000</v>
+        <v>-196.17400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>37220.913691</v>
+        <v>37220.913691000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.339143</v>
       </c>
       <c r="BK15" s="1">
-        <v>1108.640000</v>
+        <v>1108.6400000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.487000</v>
+        <v>-313.48700000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>37231.450174</v>
+        <v>37231.450173999998</v>
       </c>
       <c r="BO15" s="1">
         <v>10.342069</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.121000</v>
+        <v>-499.12099999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>37242.219808</v>
+        <v>37242.219808000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.345061</v>
+        <v>10.345060999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.073000</v>
+        <v>-703.07299999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>37253.117439</v>
+        <v>37253.117439000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.348088</v>
+        <v>10.348088000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.560000</v>
+        <v>1473.56</v>
       </c>
       <c r="CA15" s="1">
-        <v>-921.549000</v>
+        <v>-921.54899999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>37265.427161</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.351508</v>
+        <v>10.351508000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.230000</v>
+        <v>1832.23</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1441.420000</v>
+        <v>-1441.42</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>37094.017682</v>
+        <v>37094.017681999998</v>
       </c>
       <c r="B16" s="1">
         <v>10.303894</v>
       </c>
       <c r="C16" s="1">
-        <v>905.166000</v>
+        <v>905.16600000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-180.541000</v>
+        <v>-180.541</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>37104.399942</v>
+        <v>37104.399941999996</v>
       </c>
       <c r="G16" s="1">
         <v>10.306778</v>
       </c>
       <c r="H16" s="1">
-        <v>919.850000</v>
+        <v>919.85</v>
       </c>
       <c r="I16" s="1">
-        <v>-154.656000</v>
+        <v>-154.65600000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>37114.909672</v>
+        <v>37114.909672000002</v>
       </c>
       <c r="L16" s="1">
         <v>10.309697</v>
       </c>
       <c r="M16" s="1">
-        <v>941.401000</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-113.332000</v>
+        <v>-113.33199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>37125.437785</v>
+        <v>37125.437785000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.312622</v>
+        <v>10.312621999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>948.836000</v>
+        <v>948.83600000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.610700</v>
+        <v>-99.610699999999994</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>37135.930620</v>
+        <v>37135.930619999999</v>
       </c>
       <c r="V16" s="1">
         <v>10.315536</v>
       </c>
       <c r="W16" s="1">
-        <v>956.509000</v>
+        <v>956.50900000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.587300</v>
+        <v>-86.587299999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>37146.470110</v>
+        <v>37146.470110000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.318464</v>
+        <v>10.318464000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.959000</v>
+        <v>964.95899999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.506000</v>
+        <v>-76.506</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>37156.959505</v>
+        <v>37156.959504999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.321378</v>
+        <v>10.321377999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.321000</v>
+        <v>970.32100000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.582000</v>
+        <v>-74.581999999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>37167.555537</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.324321</v>
+        <v>10.324320999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.068000</v>
+        <v>978.06799999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.414900</v>
+        <v>-79.414900000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>37178.048899</v>
+        <v>37178.048899000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.327236</v>
+        <v>10.327235999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.346000</v>
+        <v>986.346</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.966900</v>
+        <v>-90.966899999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>37188.727765</v>
+        <v>37188.727765000003</v>
       </c>
       <c r="AU16" s="1">
         <v>10.330202</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.212000</v>
+        <v>996.21199999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.523000</v>
+        <v>-108.523</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>37199.403655</v>
+        <v>37199.403655000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>10.333168</v>
+        <v>10.333168000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.190000</v>
+        <v>-124.19</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>37210.038906</v>
+        <v>37210.038906000002</v>
       </c>
       <c r="BE16" s="1">
         <v>10.336122</v>
       </c>
       <c r="BF16" s="1">
-        <v>1042.680000</v>
+        <v>1042.68</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>37221.288635</v>
+        <v>37221.288634999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.339247</v>
       </c>
       <c r="BK16" s="1">
-        <v>1108.670000</v>
+        <v>1108.67</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.491000</v>
+        <v>-313.49099999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>37232.020571</v>
+        <v>37232.020571000001</v>
       </c>
       <c r="BO16" s="1">
         <v>10.342228</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.129000</v>
+        <v>-499.12900000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>37242.633470</v>
+        <v>37242.633470000001</v>
       </c>
       <c r="BT16" s="1">
         <v>10.345176</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.400000</v>
+        <v>1337.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.084000</v>
+        <v>-703.08399999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>37253.563809</v>
+        <v>37253.563808999999</v>
       </c>
       <c r="BY16" s="1">
         <v>10.348212</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.430000</v>
+        <v>1473.43</v>
       </c>
       <c r="CA16" s="1">
-        <v>-921.534000</v>
+        <v>-921.53399999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>37265.961873</v>
@@ -4319,90 +4735,90 @@
         <v>10.351656</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.880000</v>
+        <v>1831.88</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1439.890000</v>
+        <v>-1439.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>37094.395634</v>
       </c>
       <c r="B17" s="1">
-        <v>10.303999</v>
+        <v>10.303998999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>905.237000</v>
+        <v>905.23699999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-180.525000</v>
+        <v>-180.52500000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>37104.779908</v>
+        <v>37104.779907999997</v>
       </c>
       <c r="G17" s="1">
-        <v>10.306883</v>
+        <v>10.306882999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.722000</v>
+        <v>919.72199999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-154.632000</v>
+        <v>-154.63200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>37115.253894</v>
+        <v>37115.253894000001</v>
       </c>
       <c r="L17" s="1">
-        <v>10.309793</v>
+        <v>10.309793000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>941.510000</v>
+        <v>941.51</v>
       </c>
       <c r="N17" s="1">
-        <v>-113.148000</v>
+        <v>-113.148</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>37125.787928</v>
+        <v>37125.787927999998</v>
       </c>
       <c r="Q17" s="1">
         <v>10.312719</v>
       </c>
       <c r="R17" s="1">
-        <v>948.848000</v>
+        <v>948.84799999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.582500</v>
+        <v>-99.582499999999996</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>37136.271868</v>
+        <v>37136.271868000003</v>
       </c>
       <c r="V17" s="1">
         <v>10.315631</v>
       </c>
       <c r="W17" s="1">
-        <v>956.426000</v>
+        <v>956.42600000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.529600</v>
+        <v>-86.529600000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>37146.883276</v>
@@ -4411,28 +4827,28 @@
         <v>10.318579</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.998000</v>
+        <v>964.99800000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.470700</v>
+        <v>-76.470699999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>37157.382094</v>
+        <v>37157.382094000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.321495</v>
+        <v>10.321495000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.322000</v>
+        <v>970.322</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.586400</v>
+        <v>-74.586399999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>37167.835282</v>
@@ -4441,88 +4857,88 @@
         <v>10.324399</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.072000</v>
+        <v>978.072</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.422000</v>
+        <v>-79.421999999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>37178.344516</v>
+        <v>37178.344515999997</v>
       </c>
       <c r="AP17" s="1">
         <v>10.327318</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.345000</v>
+        <v>986.34500000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.962000</v>
+        <v>-90.962000000000003</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>37189.095301</v>
+        <v>37189.095301000001</v>
       </c>
       <c r="AU17" s="1">
         <v>10.330304</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.211000</v>
+        <v>996.21100000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.526000</v>
+        <v>-108.526</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>37199.762264</v>
+        <v>37199.762263999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.333267</v>
+        <v>10.333266999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.152000</v>
+        <v>-124.152</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>37210.399466</v>
+        <v>37210.399466000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>10.336222</v>
+        <v>10.336221999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1042.680000</v>
+        <v>1042.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>37222.061433</v>
+        <v>37222.061433000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>10.339462</v>
+        <v>10.339461999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.660000</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.527000</v>
+        <v>-313.52699999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>37232.133661</v>
@@ -4531,225 +4947,225 @@
         <v>10.342259</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.118000</v>
+        <v>-499.11799999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>37243.070445</v>
+        <v>37243.070444999998</v>
       </c>
       <c r="BT17" s="1">
         <v>10.345297</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.390000</v>
+        <v>1337.39</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.092000</v>
+        <v>-703.09199999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>37253.991856</v>
+        <v>37253.991856000001</v>
       </c>
       <c r="BY17" s="1">
         <v>10.348331</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.470000</v>
+        <v>1473.47</v>
       </c>
       <c r="CA17" s="1">
-        <v>-921.489000</v>
+        <v>-921.48900000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>37266.522815</v>
+        <v>37266.522814999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.351812</v>
+        <v>10.351812000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.690000</v>
+        <v>1831.69</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1441.530000</v>
+        <v>-1441.53</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>37094.743341</v>
+        <v>37094.743341000001</v>
       </c>
       <c r="B18" s="1">
         <v>10.304095</v>
       </c>
       <c r="C18" s="1">
-        <v>904.991000</v>
+        <v>904.99099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-180.590000</v>
+        <v>-180.59</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>37105.124138</v>
+        <v>37105.124137999999</v>
       </c>
       <c r="G18" s="1">
         <v>10.306979</v>
       </c>
       <c r="H18" s="1">
-        <v>919.891000</v>
+        <v>919.89099999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-154.531000</v>
+        <v>-154.53100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>37115.600598</v>
+        <v>37115.600597999997</v>
       </c>
       <c r="L18" s="1">
         <v>10.309889</v>
       </c>
       <c r="M18" s="1">
-        <v>941.401000</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-113.240000</v>
+        <v>-113.24</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>37126.134136</v>
+        <v>37126.134136000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.312815</v>
+        <v>10.312815000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.894000</v>
+        <v>948.89400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.581800</v>
+        <v>-99.581800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>37136.688508</v>
+        <v>37136.688507999999</v>
       </c>
       <c r="V18" s="1">
         <v>10.315747</v>
       </c>
       <c r="W18" s="1">
-        <v>956.528000</v>
+        <v>956.52800000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.629200</v>
+        <v>-86.629199999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>37147.165500</v>
+        <v>37147.165500000003</v>
       </c>
       <c r="AA18" s="1">
         <v>10.318657</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.988000</v>
+        <v>964.98800000000006</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.404900</v>
+        <v>-76.404899999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>37157.661375</v>
+        <v>37157.661375000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.321573</v>
+        <v>10.321573000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.340000</v>
+        <v>970.34</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.577700</v>
+        <v>-74.577699999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>37168.184465</v>
+        <v>37168.184464999998</v>
       </c>
       <c r="AK18" s="1">
         <v>10.324496</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.047000</v>
+        <v>978.04700000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.398000</v>
+        <v>-79.397999999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>37178.705604</v>
+        <v>37178.705604000002</v>
       </c>
       <c r="AP18" s="1">
         <v>10.327418</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.339000</v>
+        <v>986.33900000000006</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.961300</v>
+        <v>-90.961299999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>37189.460852</v>
+        <v>37189.460851999997</v>
       </c>
       <c r="AU18" s="1">
         <v>10.330406</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.199000</v>
+        <v>996.19899999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.531000</v>
+        <v>-108.53100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>37200.479477</v>
+        <v>37200.479477000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.333467</v>
+        <v>10.333467000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.157000</v>
+        <v>-124.157</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>37211.124119</v>
@@ -4758,437 +5174,437 @@
         <v>10.336423</v>
       </c>
       <c r="BF18" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.173000</v>
+        <v>-196.173</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>37222.439881</v>
+        <v>37222.439880999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.339567</v>
+        <v>10.339567000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.670000</v>
+        <v>1108.67</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.483000</v>
+        <v>-313.483</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>37232.516603</v>
+        <v>37232.516602999996</v>
       </c>
       <c r="BO18" s="1">
         <v>10.342366</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.100000</v>
+        <v>1216.0999999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.095000</v>
+        <v>-499.09500000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>37243.498525</v>
+        <v>37243.498525000003</v>
       </c>
       <c r="BT18" s="1">
         <v>10.345416</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.360000</v>
+        <v>1337.36</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.081000</v>
+        <v>-703.08100000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>37254.725470</v>
+        <v>37254.725469999998</v>
       </c>
       <c r="BY18" s="1">
         <v>10.348535</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.510000</v>
+        <v>1473.51</v>
       </c>
       <c r="CA18" s="1">
-        <v>-921.461000</v>
+        <v>-921.46100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>37267.045088</v>
+        <v>37267.045087999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.351957</v>
+        <v>10.351957000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1832.480000</v>
+        <v>1832.48</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1440.370000</v>
+        <v>-1440.37</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>37095.082622</v>
+        <v>37095.082622000002</v>
       </c>
       <c r="B19" s="1">
-        <v>10.304190</v>
+        <v>10.30419</v>
       </c>
       <c r="C19" s="1">
-        <v>904.957000</v>
+        <v>904.95699999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-180.477000</v>
+        <v>-180.477</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>37105.469315</v>
+        <v>37105.469315000002</v>
       </c>
       <c r="G19" s="1">
-        <v>10.307075</v>
+        <v>10.307074999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>919.687000</v>
+        <v>919.68700000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-153.783000</v>
+        <v>-153.78299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>37116.016741</v>
+        <v>37116.016740999999</v>
       </c>
       <c r="L19" s="1">
         <v>10.310005</v>
       </c>
       <c r="M19" s="1">
-        <v>941.553000</v>
+        <v>941.553</v>
       </c>
       <c r="N19" s="1">
-        <v>-113.324000</v>
+        <v>-113.324</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>37126.550776</v>
+        <v>37126.550775999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.312931</v>
+        <v>10.312931000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.899000</v>
+        <v>948.899</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.585300</v>
+        <v>-99.585300000000004</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>37136.984653</v>
       </c>
       <c r="V19" s="1">
-        <v>10.315829</v>
+        <v>10.315829000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>956.519000</v>
+        <v>956.51900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.632000</v>
+        <v>-86.632000000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>37147.527116</v>
+        <v>37147.527115999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>10.318758</v>
+        <v>10.318758000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.876000</v>
+        <v>964.87599999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.396900</v>
+        <v>-76.396900000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>37158.005566</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.321668</v>
+        <v>10.321668000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.348000</v>
+        <v>970.34799999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.584900</v>
+        <v>-74.584900000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>37168.533680</v>
+        <v>37168.53368</v>
       </c>
       <c r="AK19" s="1">
         <v>10.324593</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.063000</v>
+        <v>978.06299999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.426200</v>
+        <v>-79.426199999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>37179.396567</v>
+        <v>37179.396567000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.327610</v>
+        <v>10.32761</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.348000</v>
+        <v>986.34799999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.943500</v>
+        <v>-90.9435</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>37190.195923</v>
+        <v>37190.195922999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.330610</v>
+        <v>10.33061</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.200000</v>
+        <v>996.2</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.550000</v>
+        <v>-108.55</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>37200.837125</v>
+        <v>37200.837124999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>10.333566</v>
+        <v>10.333565999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>37211.485207</v>
+        <v>37211.485206999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.336524</v>
+        <v>10.336524000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1042.680000</v>
+        <v>1042.68</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.171000</v>
+        <v>-196.17099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>37222.815861</v>
+        <v>37222.815861000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.339671</v>
+        <v>10.339670999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1108.690000</v>
+        <v>1108.69</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.504000</v>
+        <v>-313.50400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>37233.253130</v>
+        <v>37233.253129999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.342570</v>
+        <v>10.34257</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.091000</v>
+        <v>-499.09100000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>37244.222652</v>
+        <v>37244.222651999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.345617</v>
+        <v>10.345617000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.450000</v>
+        <v>1337.45</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.117000</v>
+        <v>-703.11699999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>37254.866303</v>
+        <v>37254.866303000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.348574</v>
+        <v>10.348573999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.460000</v>
+        <v>1473.46</v>
       </c>
       <c r="CA19" s="1">
-        <v>-921.443000</v>
+        <v>-921.44299999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>37267.585745</v>
+        <v>37267.585744999997</v>
       </c>
       <c r="CD19" s="1">
         <v>10.352107</v>
       </c>
       <c r="CE19" s="1">
-        <v>1831.150000</v>
+        <v>1831.15</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1440.900000</v>
+        <v>-1440.9</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>37095.508689</v>
+        <v>37095.508689000002</v>
       </c>
       <c r="B20" s="1">
-        <v>10.304308</v>
+        <v>10.304308000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>904.979000</v>
+        <v>904.97900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-180.369000</v>
+        <v>-180.369</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>37105.889463</v>
       </c>
       <c r="G20" s="1">
-        <v>10.307192</v>
+        <v>10.307192000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.058000</v>
+        <v>920.05799999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-154.152000</v>
+        <v>-154.15199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>37116.309408</v>
+        <v>37116.309408000001</v>
       </c>
       <c r="L20" s="1">
         <v>10.310086</v>
       </c>
       <c r="M20" s="1">
-        <v>941.667000</v>
+        <v>941.66700000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-113.320000</v>
+        <v>-113.32</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>37126.845895</v>
+        <v>37126.845894999999</v>
       </c>
       <c r="Q20" s="1">
         <v>10.313013</v>
       </c>
       <c r="R20" s="1">
-        <v>948.911000</v>
+        <v>948.91099999999994</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.662200</v>
+        <v>-99.662199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>37137.328841</v>
+        <v>37137.328841000002</v>
       </c>
       <c r="V20" s="1">
         <v>10.315925</v>
       </c>
       <c r="W20" s="1">
-        <v>956.480000</v>
+        <v>956.48</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.554100</v>
+        <v>-86.554100000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>37147.874317</v>
+        <v>37147.874317000002</v>
       </c>
       <c r="AA20" s="1">
         <v>10.318854</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.001000</v>
+        <v>965.00099999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.437600</v>
+        <v>-76.437600000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>37158.351314</v>
@@ -5197,360 +5613,360 @@
         <v>10.321764</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.336000</v>
+        <v>970.33600000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.573500</v>
+        <v>-74.573499999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>37169.231520</v>
+        <v>37169.231520000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.324787</v>
+        <v>10.324787000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.093000</v>
+        <v>978.09299999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.413600</v>
+        <v>-79.413600000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>37179.815153</v>
+        <v>37179.815153000003</v>
       </c>
       <c r="AP20" s="1">
         <v>10.327726</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.324000</v>
+        <v>986.32399999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.952800</v>
+        <v>-90.952799999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>37190.582307</v>
+        <v>37190.582306999997</v>
       </c>
       <c r="AU20" s="1">
         <v>10.330717</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.182000</v>
+        <v>996.18200000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.540000</v>
+        <v>-108.54</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>37201.195743</v>
+        <v>37201.195742999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>10.333665</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.144000</v>
+        <v>-124.14400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>37211.844310</v>
+        <v>37211.84431</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.336623</v>
+        <v>10.336622999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.178000</v>
+        <v>-196.178</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>37223.493351</v>
+        <v>37223.493350999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.339859</v>
+        <v>10.339859000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.511000</v>
+        <v>-313.51100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>37233.766490</v>
+        <v>37233.766490000002</v>
       </c>
       <c r="BO20" s="1">
         <v>10.342713</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.100000</v>
+        <v>-499.1</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>37244.341693</v>
+        <v>37244.341693000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.345650</v>
+        <v>10.345649999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.400000</v>
+        <v>1337.4</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.070000</v>
+        <v>-703.07</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>37255.290381</v>
+        <v>37255.290380999999</v>
       </c>
       <c r="BY20" s="1">
         <v>10.348692</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.530000</v>
+        <v>1473.53</v>
       </c>
       <c r="CA20" s="1">
-        <v>-921.557000</v>
+        <v>-921.55700000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>37268.123374</v>
+        <v>37268.123374000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.352256</v>
+        <v>10.352256000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1832.610000</v>
+        <v>1832.61</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1441.150000</v>
+        <v>-1441.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>37095.781986</v>
+        <v>37095.781986000002</v>
       </c>
       <c r="B21" s="1">
-        <v>10.304384</v>
+        <v>10.304384000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>905.003000</v>
+        <v>905.00300000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-180.461000</v>
+        <v>-180.46100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>37106.162724</v>
+        <v>37106.162724000002</v>
       </c>
       <c r="G21" s="1">
         <v>10.307267</v>
       </c>
       <c r="H21" s="1">
-        <v>919.877000</v>
+        <v>919.87699999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-154.208000</v>
+        <v>-154.208</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>37116.656116</v>
+        <v>37116.656115999998</v>
       </c>
       <c r="L21" s="1">
-        <v>10.310182</v>
+        <v>10.310181999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>941.609000</v>
+        <v>941.60900000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-113.142000</v>
+        <v>-113.142</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>37127.191111</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.313109</v>
+        <v>10.313109000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>948.873000</v>
+        <v>948.87300000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.679200</v>
+        <v>-99.679199999999994</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>37137.671082</v>
+        <v>37137.671082000001</v>
       </c>
       <c r="V21" s="1">
-        <v>10.316020</v>
+        <v>10.31602</v>
       </c>
       <c r="W21" s="1">
-        <v>956.548000</v>
+        <v>956.548</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.617100</v>
+        <v>-86.617099999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>37148.569210</v>
+        <v>37148.569210000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.319047</v>
+        <v>10.319046999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.905000</v>
+        <v>964.90499999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.478600</v>
+        <v>-76.4786</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>37159.034764</v>
+        <v>37159.034764000004</v>
       </c>
       <c r="AF21" s="1">
         <v>10.321954</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.342000</v>
+        <v>970.34199999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.567600</v>
+        <v>-74.567599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>37169.579246</v>
+        <v>37169.579246000001</v>
       </c>
       <c r="AK21" s="1">
         <v>10.324883</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.078000</v>
+        <v>978.07799999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.418000</v>
+        <v>-79.418000000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>37180.173264</v>
+        <v>37180.173263999997</v>
       </c>
       <c r="AP21" s="1">
         <v>10.327826</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.335000</v>
+        <v>986.33500000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.946100</v>
+        <v>-90.946100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>37190.943921</v>
+        <v>37190.943920999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.330818</v>
+        <v>10.330818000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.194000</v>
+        <v>996.19399999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.521000</v>
+        <v>-108.521</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>37201.852931</v>
+        <v>37201.852931000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.333848</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.420000</v>
+        <v>1004.42</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.166000</v>
+        <v>-124.166</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>37212.511432</v>
+        <v>37212.511431999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>10.336809</v>
+        <v>10.336809000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.178000</v>
+        <v>-196.178</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>37223.600984</v>
+        <v>37223.600983999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.339889</v>
+        <v>10.339888999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.515000</v>
+        <v>-313.51499999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>37234.178667</v>
@@ -5559,90 +5975,90 @@
         <v>10.342827</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.125000</v>
+        <v>-499.125</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>37244.781148</v>
+        <v>37244.781148000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.345773</v>
+        <v>10.345772999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.450000</v>
+        <v>1337.45</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.104000</v>
+        <v>-703.10400000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>37255.739793</v>
+        <v>37255.739793000001</v>
       </c>
       <c r="BY21" s="1">
         <v>10.348817</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.410000</v>
+        <v>1473.41</v>
       </c>
       <c r="CA21" s="1">
-        <v>-921.538000</v>
+        <v>-921.53800000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>37268.663547</v>
+        <v>37268.663546999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.352407</v>
+        <v>10.352406999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.820000</v>
+        <v>1831.82</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1439.780000</v>
+        <v>-1439.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>37096.125679</v>
+        <v>37096.125678999997</v>
       </c>
       <c r="B22" s="1">
-        <v>10.304479</v>
+        <v>10.304479000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>904.973000</v>
+        <v>904.97299999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-180.552000</v>
+        <v>-180.55199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>37106.508930</v>
+        <v>37106.508930000004</v>
       </c>
       <c r="G22" s="1">
         <v>10.307364</v>
       </c>
       <c r="H22" s="1">
-        <v>920.098000</v>
+        <v>920.09799999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-154.336000</v>
+        <v>-154.33600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>37117.004772</v>
@@ -5651,255 +6067,255 @@
         <v>10.310279</v>
       </c>
       <c r="M22" s="1">
-        <v>941.656000</v>
+        <v>941.65599999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-113.108000</v>
+        <v>-113.108</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>37127.540294</v>
+        <v>37127.540293999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.313206</v>
+        <v>10.313205999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.803000</v>
+        <v>948.803</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.605400</v>
+        <v>-99.605400000000003</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>37138.357576</v>
+        <v>37138.357576000002</v>
       </c>
       <c r="V22" s="1">
-        <v>10.316210</v>
+        <v>10.31621</v>
       </c>
       <c r="W22" s="1">
-        <v>956.452000</v>
+        <v>956.452</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.673200</v>
+        <v>-86.673199999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>37148.919353</v>
+        <v>37148.919352999997</v>
       </c>
       <c r="AA22" s="1">
         <v>10.319144</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.934000</v>
+        <v>964.93399999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.434600</v>
+        <v>-76.434600000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>37159.379516</v>
+        <v>37159.379516000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.322050</v>
+        <v>10.322050000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.334000</v>
+        <v>970.33399999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.591100</v>
+        <v>-74.591099999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>37169.927902</v>
+        <v>37169.927902000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.324980</v>
+        <v>10.32498</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.086000</v>
+        <v>978.08600000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.419000</v>
+        <v>-79.418999999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>37180.844352</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.328012</v>
+        <v>10.328011999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.353000</v>
+        <v>986.35299999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.937000</v>
+        <v>-90.936999999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>37191.617991</v>
+        <v>37191.617990999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.331005</v>
+        <v>10.331004999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.224000</v>
+        <v>996.22400000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.540000</v>
+        <v>-108.54</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>37202.302809</v>
+        <v>37202.302809000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>10.333973</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.166000</v>
+        <v>-124.166</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>37212.959813</v>
+        <v>37212.959813000001</v>
       </c>
       <c r="BE22" s="1">
         <v>10.336933</v>
       </c>
       <c r="BF22" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.182000</v>
+        <v>-196.18199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>37223.967528</v>
+        <v>37223.967528000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.339991</v>
+        <v>10.339990999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1108.660000</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.510000</v>
+        <v>-313.51</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>37234.572002</v>
+        <v>37234.572002000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.342937</v>
+        <v>10.342936999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.131000</v>
+        <v>-499.13099999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>37245.206716</v>
+        <v>37245.206716000001</v>
       </c>
       <c r="BT22" s="1">
         <v>10.345891</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.380000</v>
+        <v>1337.38</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.094000</v>
+        <v>-703.09400000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>37256.171804</v>
+        <v>37256.171803999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.348937</v>
+        <v>10.348936999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.540000</v>
+        <v>1473.54</v>
       </c>
       <c r="CA22" s="1">
-        <v>-921.486000</v>
+        <v>-921.48599999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>37269.204188</v>
+        <v>37269.204188000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.352557</v>
+        <v>10.352556999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.400000</v>
+        <v>1831.4</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1441.680000</v>
+        <v>-1441.68</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>37096.466960</v>
+        <v>37096.466959999998</v>
       </c>
       <c r="B23" s="1">
-        <v>10.304574</v>
+        <v>10.304574000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>904.864000</v>
+        <v>904.86400000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-180.413000</v>
+        <v>-180.41300000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>37106.853153</v>
+        <v>37106.853152999996</v>
       </c>
       <c r="G23" s="1">
         <v>10.307459</v>
       </c>
       <c r="H23" s="1">
-        <v>919.714000</v>
+        <v>919.71400000000006</v>
       </c>
       <c r="I23" s="1">
-        <v>-154.429000</v>
+        <v>-154.429</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>37117.695731</v>
@@ -5908,465 +6324,465 @@
         <v>10.310471</v>
       </c>
       <c r="M23" s="1">
-        <v>941.503000</v>
+        <v>941.50300000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-113.184000</v>
+        <v>-113.184</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>37128.237670</v>
+        <v>37128.237670000002</v>
       </c>
       <c r="Q23" s="1">
         <v>10.313399</v>
       </c>
       <c r="R23" s="1">
-        <v>948.857000</v>
+        <v>948.85699999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.595900</v>
+        <v>-99.5959</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>37138.701303</v>
+        <v>37138.701303000002</v>
       </c>
       <c r="V23" s="1">
-        <v>10.316306</v>
+        <v>10.316306000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>956.471000</v>
+        <v>956.471</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.636000</v>
+        <v>-86.635999999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>37149.270027</v>
+        <v>37149.270026999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>10.319242</v>
+        <v>10.319241999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.964000</v>
+        <v>964.96400000000006</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.474600</v>
+        <v>-76.474599999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>37159.721737</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.322145</v>
+        <v>10.322145000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.350000</v>
+        <v>970.35</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.599800</v>
+        <v>-74.599800000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>37170.596013</v>
+        <v>37170.596013000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>10.325166</v>
+        <v>10.325165999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.040000</v>
+        <v>978.04</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.402800</v>
+        <v>-79.402799999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>37181.284330</v>
+        <v>37181.284330000002</v>
       </c>
       <c r="AP23" s="1">
         <v>10.328135</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.332000</v>
+        <v>986.33199999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.955600</v>
+        <v>-90.955600000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>37192.070306</v>
+        <v>37192.070306000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.331131</v>
+        <v>10.331130999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.213000</v>
+        <v>996.21299999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.544000</v>
+        <v>-108.544</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>37202.663390</v>
+        <v>37202.663390000002</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.334073</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.161000</v>
+        <v>-124.161</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>37213.321397</v>
       </c>
       <c r="BE23" s="1">
-        <v>10.337034</v>
+        <v>10.337033999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.173000</v>
+        <v>-196.173</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>37224.340518</v>
+        <v>37224.340517999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>10.340095</v>
       </c>
       <c r="BK23" s="1">
-        <v>1108.690000</v>
+        <v>1108.69</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.486000</v>
+        <v>-313.48599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>37234.992640</v>
+        <v>37234.992639999997</v>
       </c>
       <c r="BO23" s="1">
         <v>10.343054</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.111000</v>
+        <v>-499.11099999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>37245.632283</v>
+        <v>37245.632282999999</v>
       </c>
       <c r="BT23" s="1">
         <v>10.346009</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.410000</v>
+        <v>1337.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.157000</v>
+        <v>-703.15700000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>37256.593899</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.349054</v>
+        <v>10.349054000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.500000</v>
+        <v>1473.5</v>
       </c>
       <c r="CA23" s="1">
-        <v>-921.536000</v>
+        <v>-921.53599999999994</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>37269.745788</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.352707</v>
+        <v>10.352707000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1832.760000</v>
+        <v>1832.76</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1440.170000</v>
+        <v>-1440.17</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>37097.147439</v>
       </c>
       <c r="B24" s="1">
-        <v>10.304763</v>
+        <v>10.304762999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>904.978000</v>
+        <v>904.97799999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-180.168000</v>
+        <v>-180.16800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>37107.541104</v>
+        <v>37107.541104000004</v>
       </c>
       <c r="G24" s="1">
-        <v>10.307650</v>
+        <v>10.307650000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>919.962000</v>
+        <v>919.96199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-153.902000</v>
+        <v>-153.90199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>37118.039426</v>
+        <v>37118.039426000003</v>
       </c>
       <c r="L24" s="1">
-        <v>10.310567</v>
+        <v>10.310567000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.529000</v>
+        <v>941.529</v>
       </c>
       <c r="N24" s="1">
-        <v>-112.989000</v>
+        <v>-112.989</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>37128.585860</v>
+        <v>37128.585859999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.313496</v>
+        <v>10.313496000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>948.886000</v>
+        <v>948.88599999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.573900</v>
+        <v>-99.573899999999995</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>37139.046527</v>
+        <v>37139.046526999999</v>
       </c>
       <c r="V24" s="1">
         <v>10.316402</v>
       </c>
       <c r="W24" s="1">
-        <v>956.467000</v>
+        <v>956.46699999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.700200</v>
+        <v>-86.700199999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>37149.929209</v>
+        <v>37149.929209000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.319425</v>
+        <v>10.319425000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.016000</v>
+        <v>965.01599999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.449900</v>
+        <v>-76.4499</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>37160.382394</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.322328</v>
+        <v>10.322328000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.341000</v>
+        <v>970.34100000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.565500</v>
+        <v>-74.5655</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>37170.972972</v>
+        <v>37170.972972000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.325270</v>
+        <v>10.32527</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.078000</v>
+        <v>978.07799999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.403200</v>
+        <v>-79.403199999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>37181.642912</v>
+        <v>37181.642912000003</v>
       </c>
       <c r="AP24" s="1">
         <v>10.328234</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.360000</v>
+        <v>986.36</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.948400</v>
+        <v>-90.948400000000007</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>37192.437872</v>
+        <v>37192.437872000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.331233</v>
+        <v>10.331232999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.212000</v>
+        <v>996.21199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.552000</v>
+        <v>-108.55200000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>37203.024451</v>
+        <v>37203.024450999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.334173</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.186000</v>
+        <v>-124.18600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>37213.772788</v>
+        <v>37213.772788000002</v>
       </c>
       <c r="BE24" s="1">
         <v>10.337159</v>
       </c>
       <c r="BF24" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.174000</v>
+        <v>-196.17400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>37224.768071</v>
+        <v>37224.768070999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.340213</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.493000</v>
+        <v>-313.49299999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>37235.391911</v>
+        <v>37235.391910999999</v>
       </c>
       <c r="BO24" s="1">
         <v>10.343164</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.109000</v>
+        <v>-499.10899999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>37246.047931</v>
+        <v>37246.047931000001</v>
       </c>
       <c r="BT24" s="1">
         <v>10.346124</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.033000</v>
+        <v>-703.03300000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>37257.014477</v>
+        <v>37257.014476999997</v>
       </c>
       <c r="BY24" s="1">
         <v>10.349171</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.520000</v>
+        <v>1473.52</v>
       </c>
       <c r="CA24" s="1">
-        <v>-921.478000</v>
+        <v>-921.47799999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>37270.284969</v>
@@ -6375,273 +6791,273 @@
         <v>10.352857</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.040000</v>
+        <v>1831.04</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1440.520000</v>
+        <v>-1440.52</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>37097.492190</v>
+        <v>37097.492189999997</v>
       </c>
       <c r="B25" s="1">
         <v>10.304859</v>
       </c>
       <c r="C25" s="1">
-        <v>905.071000</v>
+        <v>905.07100000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-180.323000</v>
+        <v>-180.32300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>37107.889828</v>
+        <v>37107.889827999999</v>
       </c>
       <c r="G25" s="1">
-        <v>10.307747</v>
+        <v>10.307747000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>919.785000</v>
+        <v>919.78499999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-154.296000</v>
+        <v>-154.29599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>37118.387158</v>
+        <v>37118.387157999998</v>
       </c>
       <c r="L25" s="1">
         <v>10.310663</v>
       </c>
       <c r="M25" s="1">
-        <v>941.494000</v>
+        <v>941.49400000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-113.144000</v>
+        <v>-113.14400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>37129.236148</v>
+        <v>37129.236148000004</v>
       </c>
       <c r="Q25" s="1">
         <v>10.313677</v>
       </c>
       <c r="R25" s="1">
-        <v>948.916000</v>
+        <v>948.91600000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.579700</v>
+        <v>-99.579700000000003</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>37139.702198</v>
+        <v>37139.702197999999</v>
       </c>
       <c r="V25" s="1">
-        <v>10.316584</v>
+        <v>10.316584000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>956.477000</v>
+        <v>956.47699999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.577400</v>
+        <v>-86.577399999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>37150.314131</v>
+        <v>37150.314130999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.319532</v>
+        <v>10.319532000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.964000</v>
+        <v>964.96400000000006</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.475500</v>
+        <v>-76.475499999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>37160.754554</v>
+        <v>37160.754553999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.322432</v>
+        <v>10.322431999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.332000</v>
+        <v>970.33199999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.597100</v>
+        <v>-74.597099999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>37171.320463</v>
+        <v>37171.320462999996</v>
       </c>
       <c r="AK25" s="1">
         <v>10.325367</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.073000</v>
+        <v>978.07299999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.408200</v>
+        <v>-79.408199999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>37182.002510</v>
+        <v>37182.002509999998</v>
       </c>
       <c r="AP25" s="1">
         <v>10.328334</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.338000</v>
+        <v>986.33799999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.958900</v>
+        <v>-90.9589</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>37192.801726</v>
+        <v>37192.801725999998</v>
       </c>
       <c r="AU25" s="1">
         <v>10.331334</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.208000</v>
+        <v>996.20799999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.518000</v>
+        <v>-108.518</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>37203.452003</v>
+        <v>37203.452002999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.334292</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.176000</v>
+        <v>-124.176</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>37214.268260</v>
+        <v>37214.268259999997</v>
       </c>
       <c r="BE25" s="1">
         <v>10.337297</v>
       </c>
       <c r="BF25" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.169000</v>
+        <v>-196.16900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>37225.090500</v>
+        <v>37225.090499999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>10.340303</v>
       </c>
       <c r="BK25" s="1">
-        <v>1108.680000</v>
+        <v>1108.68</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.513000</v>
+        <v>-313.51299999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>37235.810007</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.343281</v>
+        <v>10.343280999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.118000</v>
+        <v>-499.11799999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>37246.475017</v>
+        <v>37246.475016999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.346243</v>
+        <v>10.346242999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.430000</v>
+        <v>1337.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.112000</v>
+        <v>-703.11199999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>37257.440042</v>
+        <v>37257.440042000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.349289</v>
+        <v>10.349289000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.380000</v>
+        <v>1473.38</v>
       </c>
       <c r="CA25" s="1">
-        <v>-921.572000</v>
+        <v>-921.572</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>37270.821640</v>
+        <v>37270.821640000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.353006</v>
+        <v>10.353006000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1832.180000</v>
+        <v>1832.18</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1441.340000</v>
+        <v>-1441.34</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>37097.835885</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>10.304954</v>
       </c>
       <c r="C26" s="1">
-        <v>904.983000</v>
+        <v>904.98299999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-180.481000</v>
+        <v>-180.48099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>37108.238975</v>
       </c>
       <c r="G26" s="1">
-        <v>10.307844</v>
+        <v>10.307843999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>919.765000</v>
+        <v>919.76499999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-154.257000</v>
+        <v>-154.25700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>37119.042873</v>
+        <v>37119.042872999999</v>
       </c>
       <c r="L26" s="1">
         <v>10.310845</v>
       </c>
       <c r="M26" s="1">
-        <v>941.632000</v>
+        <v>941.63199999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-113.179000</v>
+        <v>-113.179</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>37129.630466</v>
+        <v>37129.630466000002</v>
       </c>
       <c r="Q26" s="1">
         <v>10.313786</v>
       </c>
       <c r="R26" s="1">
-        <v>948.849000</v>
+        <v>948.84900000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.589000</v>
+        <v>-99.588999999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>37140.076677</v>
+        <v>37140.076676999997</v>
       </c>
       <c r="V26" s="1">
-        <v>10.316688</v>
+        <v>10.316687999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>956.465000</v>
+        <v>956.46500000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.576000</v>
+        <v>-86.575999999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>37150.662295</v>
+        <v>37150.662295000002</v>
       </c>
       <c r="AA26" s="1">
         <v>10.319628</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.952000</v>
+        <v>964.952</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.449800</v>
+        <v>-76.449799999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>37161.098123</v>
+        <v>37161.098123000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.322527</v>
+        <v>10.322526999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.326000</v>
+        <v>970.32600000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.570900</v>
+        <v>-74.570899999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>37171.670403</v>
+        <v>37171.670402999996</v>
       </c>
       <c r="AK26" s="1">
         <v>10.325464</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.074000</v>
+        <v>978.07399999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.424000</v>
+        <v>-79.424000000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>37182.415181</v>
+        <v>37182.415180999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.328449</v>
+        <v>10.328449000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.345000</v>
+        <v>986.34500000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.956300</v>
+        <v>-90.956299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>37193.216100</v>
+        <v>37193.216099999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.331449</v>
+        <v>10.331448999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.212000</v>
+        <v>996.21199999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.529000</v>
+        <v>-108.529</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>37203.740674</v>
+        <v>37203.740674000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.334372</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.164000</v>
+        <v>-124.164</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>37214.405651</v>
+        <v>37214.405651000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>10.337335</v>
+        <v>10.337334999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.182000</v>
+        <v>-196.18199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>37225.489748</v>
       </c>
       <c r="BJ26" s="1">
-        <v>10.340414</v>
+        <v>10.340414000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1108.670000</v>
+        <v>1108.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.511000</v>
+        <v>-313.51100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>37236.205814</v>
+        <v>37236.205814000001</v>
       </c>
       <c r="BO26" s="1">
         <v>10.343391</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.121000</v>
+        <v>-499.12099999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>37246.888684</v>
+        <v>37246.888683999998</v>
       </c>
       <c r="BT26" s="1">
         <v>10.346358</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.410000</v>
+        <v>1337.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.125000</v>
+        <v>-703.125</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>37257.860650</v>
+        <v>37257.860650000002</v>
       </c>
       <c r="BY26" s="1">
         <v>10.349406</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.480000</v>
+        <v>1473.48</v>
       </c>
       <c r="CA26" s="1">
-        <v>-921.530000</v>
+        <v>-921.53</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>37271.364264</v>
+        <v>37271.364264000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.353157</v>
+        <v>10.353156999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1831.930000</v>
+        <v>1831.93</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1440.130000</v>
+        <v>-1440.13</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>